--- a/biology/Médecine/Perforation_du_tympan/Perforation_du_tympan.xlsx
+++ b/biology/Médecine/Perforation_du_tympan/Perforation_du_tympan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une perforation du tympan, ou perforation tympanique, est une rupture du tympan pouvant résulter :
-d'un changement de pression[1] :
+d'un changement de pression :
 insertion d'un objet dans le conduit auditif externe (ex. : coton-tige, allumette),
 traumatisme sonore (ex. : feu d'artifice, explosion d'une bouteille de gaz),
 barotraumatisme (ex. : plongée sous-marine, parachutisme, éternuement retenu) ;
-d'une inflammation : otite moyenne aiguë [1];
+d'une inflammation : otite moyenne aiguë ;
 d'un traumatisme crânien ;
-d'une intervention chirurgicale, la paracentèse[2].
+d'une intervention chirurgicale, la paracentèse.
 En général, le tympan cicatrise seul. Toutefois, une tympanoplastie peut être réalisée en cas de difficultés de cicatrisation.
 </t>
         </is>
@@ -519,7 +531,9 @@
           <t>Symptômes courants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les symptômes, sont notamment retrouvés : pertes auditives (surdité de transmission), otalgies, otorragies, otorrhées, acouphènes, nausées, fatigue et vertiges.
 </t>
@@ -550,9 +564,11 @@
           <t>Risques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> En cas de perforation du tympan, des agents pathogènes peuvent pénétrer dans l'oreille moyenne (corps étrangers, micro-organismes, eau, etc.) et ainsi entraîner une infection[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> En cas de perforation du tympan, des agents pathogènes peuvent pénétrer dans l'oreille moyenne (corps étrangers, micro-organismes, eau, etc.) et ainsi entraîner une infection.
 </t>
         </is>
       </c>
